--- a/data/georgia_census/adjara/qeda/population_total.xlsx
+++ b/data/georgia_census/adjara/qeda/population_total.xlsx
@@ -1358,13 +1358,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5F44D69-3D70-4C3B-98F2-B6C539172504}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A198416-F9B1-4BBD-8629-4DCAB8C184A5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55A4C881-EF92-4D8A-86F7-9A793E22618C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65B13F43-99B8-4DC1-82E1-200BC53777EC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47785B64-17AF-4E4E-8628-17B37C3CE702}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B81C40E5-5DA0-49C1-AD7D-28F30F13E19D}"/>
 </file>